--- a/dane dotyczące skrótów poszczególnych stanów.xlsx
+++ b/dane dotyczące skrótów poszczególnych stanów.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aniat\Desktop\Nauka\Analityk Danych\Projekty\8.3. Zaawansowane techniki korzystania z Pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60D0F13E-1906-4CE9-89AD-D531BCEF768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2034C6D7-6FB9-4061-BD96-CC2FA545605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D8711863-0326-471F-A7A2-5BECCF54A1CE}"/>
   </bookViews>
@@ -2367,9 +2367,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2497,18 +2496,177 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2520,165 +2678,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2704,13 +2703,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2766,13 +2765,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2828,13 +2827,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2890,13 +2889,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2952,13 +2951,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3014,13 +3013,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3076,13 +3075,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3138,13 +3137,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3200,13 +3199,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3262,13 +3261,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3324,13 +3323,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3386,13 +3385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3448,13 +3447,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3510,13 +3509,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3572,13 +3571,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3634,13 +3633,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3696,13 +3695,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3758,13 +3757,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3820,13 +3819,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3882,13 +3881,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3944,13 +3943,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4006,13 +4005,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4068,13 +4067,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4130,13 +4129,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4192,13 +4191,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4254,13 +4253,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4316,13 +4315,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4378,13 +4377,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4440,13 +4439,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4502,13 +4501,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4564,13 +4563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4626,13 +4625,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4688,13 +4687,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4750,13 +4749,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4812,13 +4811,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4874,13 +4873,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4936,13 +4935,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4998,13 +4997,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5060,13 +5059,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5122,13 +5121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5184,13 +5183,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5246,13 +5245,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5308,13 +5307,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5370,13 +5369,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5432,13 +5431,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5494,13 +5493,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5556,13 +5555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5618,13 +5617,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5680,13 +5679,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5742,13 +5741,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5804,13 +5803,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5866,13 +5865,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5928,13 +5927,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5990,13 +5989,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6052,13 +6051,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6114,13 +6113,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6176,13 +6175,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6238,13 +6237,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6300,13 +6299,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6362,13 +6361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6424,13 +6423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6486,13 +6485,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6548,13 +6547,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6610,13 +6609,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6672,13 +6671,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7030,10 +7029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7BE1D3-5985-4DFF-B488-5792EBA172D7}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7043,2940 +7042,2927 @@
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="28"/>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B1" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D1" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="2" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J1" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K1" s="91" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="4" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="100"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="92"/>
+    </row>
+    <row r="3" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B3" s="62" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="50">
+        <v>0</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="94"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="54"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="4">
+        <v>840</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="79"/>
+      <c r="H6" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="89"/>
+      <c r="H7" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="79"/>
+      <c r="H9" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="79"/>
+      <c r="J10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5">
+        <v>9</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="79"/>
+      <c r="H12" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="11">
+        <v>11</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="87"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5">
         <v>12</v>
       </c>
-      <c r="D4" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="61">
-        <v>0</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="61" t="s">
+      <c r="F15" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="79"/>
+      <c r="H15" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="5">
+        <v>13</v>
+      </c>
+      <c r="F16" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="79"/>
+      <c r="H16" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="62"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="5">
-        <v>840</v>
-      </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="63"/>
-    </row>
-    <row r="7" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="F17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="79"/>
+      <c r="J17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5">
         <v>16</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="F18" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="5">
+        <v>17</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="79"/>
+      <c r="H19" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="5">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F20" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="79"/>
+      <c r="H20" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="5">
         <v>19</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="68" t="s">
+      <c r="F21" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="79"/>
+      <c r="H21" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="5">
         <v>20</v>
       </c>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="F22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="5">
         <v>21</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="F23" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="79"/>
+      <c r="H23" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="5">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F24" s="77" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="79"/>
+      <c r="H24" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="5">
         <v>23</v>
       </c>
-      <c r="E8" s="9">
-        <v>2</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="71" t="s">
+      <c r="F25" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="79"/>
+      <c r="H25" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="I25" s="79"/>
+      <c r="J25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="5">
         <v>24</v>
       </c>
-      <c r="I8" s="73"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="32" t="s">
+      <c r="F26" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="79"/>
+      <c r="H26" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="F27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="5">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F28" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="5">
         <v>27</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F29" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="79"/>
+      <c r="H29" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="5">
         <v>28</v>
       </c>
-      <c r="E9" s="6">
-        <v>4</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="68" t="s">
+      <c r="F30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="78"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="5">
         <v>29</v>
       </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="F31" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="79"/>
+      <c r="H31" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="5">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="F32" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="79"/>
+      <c r="H32" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="29"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C33" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="5">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="F33" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="84"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="5">
         <v>32</v>
       </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="68" t="s">
+      <c r="F34" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="79"/>
+      <c r="H34" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="78"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="29"/>
+    </row>
+    <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="5">
         <v>33</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="F35" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="79"/>
+      <c r="H35" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="78"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="29"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="5">
         <v>34</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="F36" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="79"/>
+      <c r="H36" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C37" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="5">
         <v>35</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F37" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="79"/>
+      <c r="H37" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="J37" s="84"/>
+      <c r="K37" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="5">
         <v>36</v>
       </c>
-      <c r="E11" s="6">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F38" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="79"/>
+      <c r="H38" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="I38" s="78"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="5">
         <v>37</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="F39" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="79"/>
+      <c r="H39" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I39" s="78"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="5">
         <v>38</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="6" t="s">
+      <c r="F40" s="77" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="79"/>
+      <c r="H40" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="84"/>
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E41" s="5">
         <v>39</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+      <c r="F41" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="79"/>
+      <c r="H41" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" s="5">
         <v>40</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="F42" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="79"/>
+      <c r="H42" s="77" t="s">
+        <v>193</v>
+      </c>
+      <c r="I42" s="78"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="29"/>
+    </row>
+    <row r="43" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C43" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E43" s="5">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="F43" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="79"/>
+      <c r="H43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K43" s="29"/>
+    </row>
+    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="5">
         <v>42</v>
       </c>
-      <c r="E12" s="6">
-        <v>8</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="68" t="s">
+      <c r="F44" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="79"/>
+      <c r="H44" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" s="5">
         <v>44</v>
       </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="F45" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="79"/>
+      <c r="H45" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="78"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="5">
         <v>45</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="F46" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="G46" s="79"/>
+      <c r="H46" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="78"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C47" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E47" s="5">
         <v>46</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="F47" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="G47" s="79"/>
+      <c r="H47" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I47" s="83" t="s">
+        <v>219</v>
+      </c>
+      <c r="J47" s="84"/>
+      <c r="K47" s="29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="5">
         <v>47</v>
       </c>
-      <c r="E13" s="6">
-        <v>9</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="68" t="s">
+      <c r="F48" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="79"/>
+      <c r="H48" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="I48" s="78"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="29"/>
+    </row>
+    <row r="49" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="5">
         <v>48</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="F49" s="77" t="s">
+        <v>227</v>
+      </c>
+      <c r="G49" s="79"/>
+      <c r="H49" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="K49" s="29"/>
+    </row>
+    <row r="50" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="5">
         <v>49</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="F50" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="79"/>
+      <c r="H50" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="I50" s="78"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C51" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E51" s="5">
         <v>50</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="F51" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="79"/>
+      <c r="H51" s="77" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" s="78"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" s="5">
         <v>51</v>
       </c>
-      <c r="E14" s="6">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="68" t="s">
+      <c r="F52" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="G52" s="79"/>
+      <c r="H52" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="78"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" s="5">
         <v>53</v>
       </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="F53" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="I53" s="78"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="5">
         <v>54</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="F54" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="G54" s="79"/>
+      <c r="H54" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" s="5">
         <v>55</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="F55" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H55" s="77" t="s">
+        <v>261</v>
+      </c>
+      <c r="I55" s="78"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="5">
         <v>56</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="12">
-        <v>11</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="76"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="F56" s="77" t="s">
+        <v>265</v>
+      </c>
+      <c r="G56" s="79"/>
+      <c r="H56" s="77" t="s">
+        <v>266</v>
+      </c>
+      <c r="I56" s="78"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="29"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="56" t="s">
+        <v>269</v>
+      </c>
+      <c r="E57" s="56">
         <v>60</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="6">
-        <v>12</v>
-      </c>
-      <c r="F16" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="69"/>
-      <c r="H16" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="70"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="F57" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G57" s="71"/>
+      <c r="H57" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="I57" s="56"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="56"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="72"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="72"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="16">
+        <v>16</v>
+      </c>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+    </row>
+    <row r="60" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="73"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E61" s="56">
+        <v>66</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>275</v>
+      </c>
+      <c r="G61" s="71"/>
+      <c r="H61" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="K61" s="56"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="16">
+        <v>316</v>
+      </c>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="73"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" s="56">
+        <v>69</v>
+      </c>
+      <c r="F65" s="56" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="H65" s="56" t="s">
+        <v>285</v>
+      </c>
+      <c r="I65" s="56"/>
+      <c r="J65" s="56" t="s">
+        <v>286</v>
+      </c>
+      <c r="K65" s="68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="69"/>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="72"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="16">
+        <v>580</v>
+      </c>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="69"/>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="73"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="70"/>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="E69" s="56">
+        <v>72</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="G69" s="71"/>
+      <c r="H69" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="I69" s="56"/>
+      <c r="J69" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="K69" s="56"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="72"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="72"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="72"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="19">
+        <v>630</v>
+      </c>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="72"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="73"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="73"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="71" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" s="56" t="s">
+        <v>294</v>
+      </c>
+      <c r="E73" s="56">
+        <v>78</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="G73" s="71"/>
+      <c r="H73" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="K73" s="56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="72"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="72"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="16">
+        <v>850</v>
+      </c>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="73"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="73"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="57"/>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="E77" s="56">
+        <v>74</v>
+      </c>
+      <c r="F77" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="27"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="66"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
+      <c r="I78" s="57"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="27"/>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="66"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="16">
+        <v>581</v>
+      </c>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="27"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="27"/>
+    </row>
+    <row r="81" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14">
+        <v>81</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="36" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14">
+        <v>84</v>
+      </c>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14">
+        <v>86</v>
+      </c>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="36" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14">
+        <v>67</v>
+      </c>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14">
+        <v>89</v>
+      </c>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14">
+        <v>71</v>
+      </c>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="35" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14">
+        <v>76</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="37" t="s">
+        <v>328</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14">
+        <v>95</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14">
+        <v>79</v>
+      </c>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="E90" s="50">
+        <v>68</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="50"/>
+      <c r="J90" s="50"/>
+      <c r="K90" s="50"/>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="54"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+    </row>
+    <row r="92" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="55"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="4">
+        <v>584</v>
+      </c>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+    </row>
+    <row r="93" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="E93" s="50">
         <v>64</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="6">
-        <v>13</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="F93" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="54"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+    </row>
+    <row r="95" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="55"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="4">
+        <v>583</v>
+      </c>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="52"/>
+      <c r="K95" s="52"/>
+    </row>
+    <row r="96" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="E96" s="50">
         <v>70</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="6">
-        <v>15</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="6">
-        <v>16</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="6">
-        <v>17</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="6">
-        <v>18</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="I21" s="70"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="6">
-        <v>19</v>
-      </c>
-      <c r="F22" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="6">
-        <v>20</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="6">
-        <v>21</v>
-      </c>
-      <c r="F24" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="69"/>
-      <c r="H24" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="6">
-        <v>22</v>
-      </c>
-      <c r="F25" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="I25" s="70"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="6">
-        <v>23</v>
-      </c>
-      <c r="F26" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" s="30"/>
-    </row>
-    <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="6">
-        <v>24</v>
-      </c>
-      <c r="F27" s="68" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="69"/>
-      <c r="H27" s="68" t="s">
-        <v>118</v>
-      </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="6">
-        <v>25</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="30"/>
-    </row>
-    <row r="29" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="6">
-        <v>26</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" s="68" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="70"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="6">
-        <v>27</v>
-      </c>
-      <c r="F30" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="69"/>
-      <c r="H30" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="70"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="30"/>
-    </row>
-    <row r="31" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="6">
-        <v>28</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="30"/>
-    </row>
-    <row r="32" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="6">
-        <v>29</v>
-      </c>
-      <c r="F32" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="68" t="s">
-        <v>140</v>
-      </c>
-      <c r="I32" s="70"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="30"/>
-    </row>
-    <row r="33" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="6">
-        <v>30</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="70"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="30"/>
-    </row>
-    <row r="34" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" s="6">
-        <v>31</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" s="78"/>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="6">
-        <v>32</v>
-      </c>
-      <c r="F35" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="70"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="30"/>
-    </row>
-    <row r="36" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="6">
-        <v>33</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="30"/>
-    </row>
-    <row r="37" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E37" s="6">
-        <v>34</v>
-      </c>
-      <c r="F37" s="68" t="s">
-        <v>161</v>
-      </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="I37" s="70"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="6">
-        <v>35</v>
-      </c>
-      <c r="F38" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="77" t="s">
-        <v>168</v>
-      </c>
-      <c r="J38" s="78"/>
-      <c r="K38" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="6">
-        <v>36</v>
-      </c>
-      <c r="F39" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="I39" s="70"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="35" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="6">
-        <v>37</v>
-      </c>
-      <c r="F40" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="I40" s="70"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="6">
-        <v>38</v>
-      </c>
-      <c r="F41" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="I41" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="J41" s="78"/>
-      <c r="K41" s="30"/>
-    </row>
-    <row r="42" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="6">
-        <v>39</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="G42" s="69"/>
-      <c r="H42" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="I42" s="70"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E43" s="6">
-        <v>40</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="I43" s="70"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="30"/>
-    </row>
-    <row r="44" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="E44" s="6">
-        <v>41</v>
-      </c>
-      <c r="F44" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="G44" s="69"/>
-      <c r="H44" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="K44" s="30"/>
-    </row>
-    <row r="45" spans="1:11" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="6">
-        <v>42</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="69"/>
-      <c r="H45" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="70"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="6">
-        <v>44</v>
-      </c>
-      <c r="F46" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="69"/>
-      <c r="H46" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="I46" s="70"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E47" s="6">
-        <v>45</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="G47" s="69"/>
-      <c r="H47" s="68" t="s">
-        <v>213</v>
-      </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E48" s="6">
-        <v>46</v>
-      </c>
-      <c r="F48" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I48" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="J48" s="78"/>
-      <c r="K48" s="30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E49" s="6">
-        <v>47</v>
-      </c>
-      <c r="F49" s="68" t="s">
-        <v>223</v>
-      </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="I49" s="70"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="30"/>
-    </row>
-    <row r="50" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="6">
-        <v>48</v>
-      </c>
-      <c r="F50" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="G50" s="69"/>
-      <c r="H50" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="K50" s="30"/>
-    </row>
-    <row r="51" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="E51" s="6">
-        <v>49</v>
-      </c>
-      <c r="F51" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="G51" s="69"/>
-      <c r="H51" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="I51" s="70"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E52" s="6">
-        <v>50</v>
-      </c>
-      <c r="F52" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="G52" s="69"/>
-      <c r="H52" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="I52" s="70"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="35" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E53" s="6">
-        <v>51</v>
-      </c>
-      <c r="F53" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="G53" s="69"/>
-      <c r="H53" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="I53" s="70"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="30" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E54" s="6">
-        <v>53</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="35" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E55" s="6">
-        <v>54</v>
-      </c>
-      <c r="F55" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="G55" s="69"/>
-      <c r="H55" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K55" s="30" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" s="6">
-        <v>55</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="H56" s="68" t="s">
-        <v>261</v>
-      </c>
-      <c r="I56" s="70"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>263</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E57" s="6">
-        <v>56</v>
-      </c>
-      <c r="F57" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="I57" s="70"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="30"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="B58" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="D58" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="E58" s="86">
-        <v>60</v>
-      </c>
-      <c r="F58" s="85" t="s">
-        <v>269</v>
-      </c>
-      <c r="G58" s="79"/>
-      <c r="H58" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="80"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="80"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="17">
-        <v>16</v>
-      </c>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="81"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D61" s="88"/>
-      <c r="E61" s="88"/>
-      <c r="F61" s="90"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="88"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="88"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="79" t="s">
-        <v>273</v>
-      </c>
-      <c r="B62" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="D62" s="86" t="s">
-        <v>275</v>
-      </c>
-      <c r="E62" s="86">
-        <v>66</v>
-      </c>
-      <c r="F62" s="85" t="s">
-        <v>275</v>
-      </c>
-      <c r="G62" s="79"/>
-      <c r="H62" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86" t="s">
-        <v>278</v>
-      </c>
-      <c r="K62" s="86"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="80"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="17">
-        <v>316</v>
-      </c>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="80"/>
-      <c r="H64" s="87"/>
-      <c r="I64" s="87"/>
-      <c r="J64" s="87"/>
-      <c r="K64" s="87"/>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="81"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="79" t="s">
-        <v>279</v>
-      </c>
-      <c r="B66" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D66" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="E66" s="86">
-        <v>69</v>
-      </c>
-      <c r="F66" s="86" t="s">
-        <v>281</v>
-      </c>
-      <c r="G66" s="94" t="s">
-        <v>284</v>
-      </c>
-      <c r="H66" s="86" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="86"/>
-      <c r="J66" s="86" t="s">
-        <v>286</v>
-      </c>
-      <c r="K66" s="91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="80"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="87"/>
-      <c r="I67" s="87"/>
-      <c r="J67" s="87"/>
-      <c r="K67" s="92"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="80"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="17">
-        <v>580</v>
-      </c>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="87"/>
-      <c r="K68" s="92"/>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="81"/>
-      <c r="B69" s="93"/>
-      <c r="C69" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="96"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="88"/>
-      <c r="K69" s="93"/>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="B70" s="91" t="s">
-        <v>280</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="E70" s="86">
-        <v>72</v>
-      </c>
-      <c r="F70" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="G70" s="79"/>
-      <c r="H70" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="K70" s="86"/>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="80"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="89"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="80"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="20">
-        <v>630</v>
-      </c>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="89"/>
-      <c r="G72" s="80"/>
-      <c r="H72" s="87"/>
-      <c r="I72" s="87"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="87"/>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="81"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="88"/>
-      <c r="I73" s="88"/>
-      <c r="J73" s="88"/>
-      <c r="K73" s="88"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="B74" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="86" t="s">
-        <v>294</v>
-      </c>
-      <c r="E74" s="86">
-        <v>78</v>
-      </c>
-      <c r="F74" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="G74" s="79"/>
-      <c r="H74" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="I74" s="86"/>
-      <c r="J74" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="K74" s="86" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="80"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="87"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="80"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="17">
-        <v>850</v>
-      </c>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="89"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="81"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" s="88"/>
-      <c r="E77" s="88"/>
-      <c r="F77" s="90"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="88"/>
-      <c r="I77" s="88"/>
-      <c r="J77" s="88"/>
-      <c r="K77" s="87"/>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="97" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D78" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="E78" s="86">
-        <v>74</v>
-      </c>
-      <c r="F78" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="28"/>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="98"/>
-      <c r="B79" s="87"/>
-      <c r="C79" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="92"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="87"/>
-      <c r="J79" s="89"/>
-      <c r="K79" s="28"/>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="98"/>
-      <c r="B80" s="87"/>
-      <c r="C80" s="17">
-        <v>581</v>
-      </c>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="92"/>
-      <c r="G80" s="87"/>
-      <c r="H80" s="87"/>
-      <c r="I80" s="87"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="28"/>
-    </row>
-    <row r="81" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81" s="88"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="93"/>
-      <c r="G81" s="88"/>
-      <c r="H81" s="88"/>
-      <c r="I81" s="88"/>
-      <c r="J81" s="90"/>
-      <c r="K81" s="28"/>
-    </row>
-    <row r="82" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15">
-        <v>81</v>
-      </c>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15">
-        <v>84</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="36" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15">
-        <v>86</v>
-      </c>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15">
-        <v>67</v>
-      </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15">
-        <v>89</v>
-      </c>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="36" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15">
-        <v>71</v>
-      </c>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="36" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15">
-        <v>76</v>
-      </c>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="36" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15">
-        <v>95</v>
-      </c>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="37" t="s">
-        <v>332</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15">
-        <v>79</v>
-      </c>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="B91" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D91" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="E91" s="61">
-        <v>68</v>
-      </c>
-      <c r="F91" s="61" t="s">
-        <v>337</v>
-      </c>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="61"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="61"/>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62"/>
-      <c r="G92" s="62"/>
-      <c r="H92" s="62"/>
-      <c r="I92" s="62"/>
-      <c r="J92" s="62"/>
-      <c r="K92" s="62"/>
-    </row>
-    <row r="93" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="5">
-        <v>584</v>
-      </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="63"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="63"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="63"/>
-      <c r="J93" s="63"/>
-      <c r="K93" s="63"/>
-    </row>
-    <row r="94" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="B94" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D94" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="E94" s="61">
-        <v>64</v>
-      </c>
-      <c r="F94" s="61" t="s">
-        <v>340</v>
-      </c>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
-      <c r="I94" s="61"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="61"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62"/>
-      <c r="G95" s="62"/>
-      <c r="H95" s="62"/>
-      <c r="I95" s="62"/>
-      <c r="J95" s="62"/>
-      <c r="K95" s="62"/>
-    </row>
-    <row r="96" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="56"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="5">
-        <v>583</v>
-      </c>
-      <c r="D96" s="63"/>
-      <c r="E96" s="63"/>
-      <c r="F96" s="63"/>
-      <c r="G96" s="63"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="63"/>
-      <c r="J96" s="63"/>
-      <c r="K96" s="63"/>
-    </row>
-    <row r="97" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="B97" s="61" t="s">
-        <v>336</v>
-      </c>
+      <c r="F96" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G96" s="50"/>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50"/>
+      <c r="J96" s="50"/>
+      <c r="K96" s="50"/>
+    </row>
+    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="54"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D97" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="E97" s="61">
-        <v>70</v>
-      </c>
-      <c r="F97" s="61" t="s">
-        <v>343</v>
-      </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="61"/>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+    </row>
+    <row r="98" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55"/>
-      <c r="B98" s="62"/>
-      <c r="C98" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D98" s="62"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="62"/>
-      <c r="H98" s="62"/>
-      <c r="I98" s="62"/>
-      <c r="J98" s="62"/>
-      <c r="K98" s="62"/>
-    </row>
-    <row r="99" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="5">
+      <c r="B98" s="52"/>
+      <c r="C98" s="4">
         <v>585</v>
       </c>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="63"/>
-      <c r="J99" s="63"/>
-      <c r="K99" s="63"/>
-    </row>
-    <row r="100" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39" t="s">
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+    </row>
+    <row r="99" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="38" t="s">
         <v>345</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="39"/>
+    </row>
+    <row r="100" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="40" t="s">
+        <v>348</v>
       </c>
       <c r="B100" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="40"/>
-    </row>
-    <row r="101" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="B101" s="22" t="s">
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="39"/>
+    </row>
+    <row r="101" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="B101" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="40"/>
-    </row>
-    <row r="102" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="39"/>
+    </row>
+    <row r="102" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="B102" s="22" t="s">
-        <v>346</v>
+        <v>145</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
       <c r="E102" s="22"/>
       <c r="F102" s="22" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22"/>
       <c r="J102" s="22"/>
-      <c r="K102" s="40"/>
-    </row>
-    <row r="103" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="43"/>
-    </row>
-    <row r="104" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="42" t="s">
+      <c r="K102" s="42"/>
+    </row>
+    <row r="103" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="B103" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C104" s="23"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23" t="s">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="43"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="42"/>
+    </row>
+    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="44"/>
     </row>
     <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="B105" s="103" t="s">
+      <c r="A105" s="48"/>
+      <c r="B105" s="45"/>
+      <c r="C105" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+    </row>
+    <row r="106" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="49"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="25">
+        <v>594</v>
+      </c>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="46"/>
+    </row>
+    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="103" t="s">
-        <v>357</v>
-      </c>
-      <c r="G105" s="103"/>
-      <c r="H105" s="103"/>
-      <c r="I105" s="103"/>
-      <c r="J105" s="103"/>
-      <c r="K105" s="103"/>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="101"/>
-      <c r="B106" s="104"/>
-      <c r="C106" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D106" s="104"/>
-      <c r="E106" s="104"/>
-      <c r="F106" s="104"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="104"/>
-      <c r="I106" s="104"/>
-      <c r="J106" s="104"/>
-      <c r="K106" s="104"/>
-    </row>
-    <row r="107" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="102"/>
-      <c r="B107" s="105"/>
-      <c r="C107" s="26">
-        <v>594</v>
-      </c>
-      <c r="D107" s="105"/>
-      <c r="E107" s="105"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="105"/>
-      <c r="H107" s="105"/>
-      <c r="I107" s="105"/>
-      <c r="J107" s="105"/>
-      <c r="K107" s="105"/>
+      <c r="C107" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
+      <c r="K107" s="44"/>
     </row>
     <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
-        <v>358</v>
-      </c>
-      <c r="B108" s="103" t="s">
+      <c r="A108" s="48"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="45"/>
+    </row>
+    <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="49"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+    </row>
+    <row r="110" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="B110" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="C108" s="25" t="s">
-        <v>359</v>
-      </c>
-      <c r="D108" s="103"/>
-      <c r="E108" s="103"/>
-      <c r="F108" s="103" t="s">
-        <v>362</v>
-      </c>
-      <c r="G108" s="103"/>
-      <c r="H108" s="103"/>
-      <c r="I108" s="103"/>
-      <c r="J108" s="103"/>
-      <c r="K108" s="103"/>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="101"/>
-      <c r="B109" s="104"/>
-      <c r="C109" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="104"/>
-      <c r="E109" s="104"/>
-      <c r="F109" s="104"/>
-      <c r="G109" s="104"/>
-      <c r="H109" s="104"/>
-      <c r="I109" s="104"/>
-      <c r="J109" s="104"/>
-      <c r="K109" s="104"/>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="102"/>
-      <c r="B110" s="105"/>
-      <c r="C110" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
-    </row>
-    <row r="111" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="100" t="s">
-        <v>363</v>
-      </c>
-      <c r="B111" s="103" t="s">
-        <v>354</v>
-      </c>
+      <c r="C110" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+    </row>
+    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="48"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="25" t="s">
-        <v>364</v>
-      </c>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103" t="s">
-        <v>366</v>
-      </c>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="101"/>
-      <c r="B112" s="104"/>
-      <c r="C112" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-      <c r="G112" s="104"/>
-      <c r="H112" s="104"/>
-      <c r="I112" s="104"/>
-      <c r="J112" s="104"/>
-      <c r="K112" s="104"/>
-    </row>
-    <row r="113" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="102"/>
-      <c r="B113" s="105"/>
-      <c r="C113" s="44">
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+    </row>
+    <row r="112" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="49"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="43">
         <v>582</v>
       </c>
-      <c r="D113" s="105"/>
-      <c r="E113" s="105"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="105"/>
-      <c r="H113" s="105"/>
-      <c r="I113" s="105"/>
-      <c r="J113" s="105"/>
-      <c r="K113" s="105"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="217">
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="K111:K113"/>
-    <mergeCell ref="J108:J110"/>
-    <mergeCell ref="K108:K110"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="E108:E110"/>
-    <mergeCell ref="F108:F110"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="H108:H110"/>
-    <mergeCell ref="I108:I110"/>
-    <mergeCell ref="J97:J99"/>
-    <mergeCell ref="K97:K99"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="F105:F107"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="G97:G99"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="J91:J93"/>
-    <mergeCell ref="K91:K93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="G91:G93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="K62:K65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="J66:J69"/>
-    <mergeCell ref="J58:J61"/>
-    <mergeCell ref="K58:K61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:G65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="J62:J65"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="I58:I61"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:J5"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="H4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="F57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="E61:E64"/>
+    <mergeCell ref="F61:G64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="J61:J64"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="F65:F68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="J65:J68"/>
+    <mergeCell ref="K65:K68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="E69:E72"/>
+    <mergeCell ref="F69:G72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="J69:J72"/>
+    <mergeCell ref="K69:K72"/>
+    <mergeCell ref="I73:I76"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:E80"/>
+    <mergeCell ref="F77:F80"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:E76"/>
+    <mergeCell ref="F73:G76"/>
+    <mergeCell ref="H73:H76"/>
+    <mergeCell ref="I77:I80"/>
+    <mergeCell ref="J77:J80"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="E90:E92"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="J90:J92"/>
+    <mergeCell ref="K90:K92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="E93:E95"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="K93:K95"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="H96:H98"/>
+    <mergeCell ref="I96:I98"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="K96:K98"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="F104:F106"/>
+    <mergeCell ref="G104:G106"/>
+    <mergeCell ref="H104:H106"/>
+    <mergeCell ref="I104:I106"/>
+    <mergeCell ref="J104:J106"/>
+    <mergeCell ref="K104:K106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="F107:F109"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="H107:H109"/>
+    <mergeCell ref="I107:I109"/>
+    <mergeCell ref="J110:J112"/>
+    <mergeCell ref="K110:K112"/>
+    <mergeCell ref="J107:J109"/>
+    <mergeCell ref="K107:K109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="H110:H112"/>
+    <mergeCell ref="I110:I112"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="List of states and territories of the United States" display="https://en.wikipedia.org/wiki/List_of_states_and_territories_of_the_United_States" xr:uid="{06127A83-9845-4522-A3E8-9E657296B184}"/>
-    <hyperlink ref="C2" r:id="rId2" tooltip="ISO 3166" display="https://en.wikipedia.org/wiki/ISO_3166" xr:uid="{DAD92860-305E-40BA-89EC-C4C99F674BA1}"/>
-    <hyperlink ref="D2" r:id="rId3" location="ANSI_standard_INCITS_38:2009" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - ANSI_standard_INCITS_38:2009" xr:uid="{6EA44102-6773-409B-B52A-B10C8F403D21}"/>
-    <hyperlink ref="F2" r:id="rId4" location="Postal_codes" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - Postal_codes" xr:uid="{01A917FE-D45C-46E2-9BF4-DA9012AF5CA9}"/>
-    <hyperlink ref="G2" r:id="rId5" location="Coast_Guard_vessel_prefixes" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - Coast_Guard_vessel_prefixes" xr:uid="{7E12C60E-DE80-472E-B470-7EA00C4DC2A9}"/>
-    <hyperlink ref="H2" r:id="rId6" location="GPO" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - GPO" xr:uid="{53377C82-70CC-40B9-8C30-3095F40234C4}"/>
-    <hyperlink ref="I2" r:id="rId7" location="Current_use_of_traditional_abbreviations" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - Current_use_of_traditional_abbreviations" xr:uid="{5348005B-BF21-45D1-AADA-10D397DB9D30}"/>
-    <hyperlink ref="J2" r:id="rId8" tooltip="Federal judiciary of the United States" display="https://en.wikipedia.org/wiki/Federal_judiciary_of_the_United_States" xr:uid="{7BF2943E-22FA-4119-81FF-2D0533AAA502}"/>
-    <hyperlink ref="B4" r:id="rId9" tooltip="Federation" display="https://en.wikipedia.org/wiki/Federation" xr:uid="{191C4D6A-0592-496C-8146-F315DCDBA8C0}"/>
-    <hyperlink ref="B7" r:id="rId10" tooltip="U.S. state" display="https://en.wikipedia.org/wiki/U.S._state" xr:uid="{71DF3FB1-9ADE-4ABE-B332-506385D86EB2}"/>
-    <hyperlink ref="K8" r:id="rId11" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{B3C75D1F-E927-4687-B9A3-12A654FD54D3}"/>
-    <hyperlink ref="B15" r:id="rId12" tooltip="Federal district" display="https://en.wikipedia.org/wiki/Federal_district" xr:uid="{C875D8B9-417B-48C8-8E09-264E899A3421}"/>
-    <hyperlink ref="K15" r:id="rId13" location="cite_note-Navy-1863-4" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Navy-1863-4" xr:uid="{8B52D548-6B8B-4AF3-AD7E-30D82941C3FC}"/>
-    <hyperlink ref="K17" r:id="rId14" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{EAFEFADB-6E0C-4792-B08E-FB054F81B49C}"/>
-    <hyperlink ref="K18" r:id="rId15" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{26B81428-629A-42BD-A94A-ABBDEF81FCD7}"/>
-    <hyperlink ref="K19" r:id="rId16" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{A9C08853-D052-4398-8F06-0DEB54A8A756}"/>
-    <hyperlink ref="K22" r:id="rId17" location="cite_note-5" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-5" xr:uid="{B93532A0-1D64-4D89-A59D-F2D52466BAC7}"/>
-    <hyperlink ref="K24" r:id="rId18" location="cite_note-6" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-6" xr:uid="{2056C111-7E57-4C83-BA70-A64E350F86A3}"/>
-    <hyperlink ref="K37" r:id="rId19" location="cite_note-Navy-1863-4" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Navy-1863-4" xr:uid="{CC2E4148-63BD-42E1-80CF-01CD52428894}"/>
-    <hyperlink ref="K39" r:id="rId20" location="cite_note-Navy-1863-4" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Navy-1863-4" xr:uid="{55318F39-D884-4DD2-AE4F-8F9586A9D753}"/>
-    <hyperlink ref="K46" r:id="rId21" tooltip="Providence Plantations" display="https://en.wikipedia.org/wiki/Providence_Plantations" xr:uid="{337C618C-4572-493D-AB17-2B8ABBBF5CBA}"/>
-    <hyperlink ref="K51" r:id="rId22" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{149EAC18-C850-42C7-B967-79F8172CF532}"/>
-    <hyperlink ref="K52" r:id="rId23" location="cite_note-Gazatteer-9" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Gazatteer-9" xr:uid="{16D3F0F0-1F05-4BDF-946D-25AC0B897A8B}"/>
-    <hyperlink ref="K54" r:id="rId24" location="cite_note-10" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-10" xr:uid="{D1DB2DA4-86AE-4C40-A7B1-8C64F8360E4F}"/>
-    <hyperlink ref="B66" r:id="rId25" tooltip="Commonwealth (U.S. insular area)" display="https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)" xr:uid="{8217AD92-EED6-491C-8E6C-CE9756A310B7}"/>
-    <hyperlink ref="K66" r:id="rId26" location="cite_note-11" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-11" xr:uid="{4D7DB31A-B905-4EDF-AF71-ADA4BB765C74}"/>
-    <hyperlink ref="B70" r:id="rId27" tooltip="Commonwealth (U.S. insular area)" display="https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)" xr:uid="{C027FAE1-F175-4BB3-B81B-104B09B43CE7}"/>
-    <hyperlink ref="A78" r:id="rId28" tooltip="United States Minor Outlying Islands" display="https://en.wikipedia.org/wiki/United_States_Minor_Outlying_Islands" xr:uid="{780A3828-7906-4257-B9A8-0DFE21F6D4BE}"/>
-    <hyperlink ref="F78" r:id="rId29" location="cite_note-12" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-12" xr:uid="{81D483C3-24DE-4FE7-A7E8-F3BB6C69A992}"/>
-    <hyperlink ref="A82" r:id="rId30" tooltip="Baker Island" display="https://en.wikipedia.org/wiki/Baker_Island" xr:uid="{4EE33984-59AD-4844-BAF7-F37E41100F77}"/>
-    <hyperlink ref="B82" r:id="rId31" tooltip="Island" display="https://en.wikipedia.org/wiki/Island" xr:uid="{4CF41756-39A0-42A0-B711-988DF58BC3CE}"/>
-    <hyperlink ref="K82" r:id="rId32" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{69F9D06B-B21A-40A3-9D69-1F53175C0498}"/>
-    <hyperlink ref="A83" r:id="rId33" tooltip="Howland Island" display="https://en.wikipedia.org/wiki/Howland_Island" xr:uid="{157FBDA9-7D9C-4E38-A2B4-0DA8EA34084A}"/>
-    <hyperlink ref="K83" r:id="rId34" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{39A68178-85D7-4A81-B6A5-61614B1675FF}"/>
-    <hyperlink ref="A84" r:id="rId35" tooltip="Jarvis Island" display="https://en.wikipedia.org/wiki/Jarvis_Island" xr:uid="{5E0A620E-A728-4F1B-BC36-21CEF796614E}"/>
-    <hyperlink ref="K84" r:id="rId36" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{EB2B1268-9AA4-4129-8337-6CCE1EFCD4B3}"/>
-    <hyperlink ref="A85" r:id="rId37" tooltip="Johnston Atoll" display="https://en.wikipedia.org/wiki/Johnston_Atoll" xr:uid="{99B0E518-77A4-41C8-9081-672405D7EA9A}"/>
-    <hyperlink ref="B85" r:id="rId38" tooltip="Atoll" display="https://en.wikipedia.org/wiki/Atoll" xr:uid="{BC90E5CD-01D3-4902-B4C1-C2EA959BC677}"/>
-    <hyperlink ref="K85" r:id="rId39" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{57935416-A775-4EEB-842D-CFD2BFC5C7EC}"/>
-    <hyperlink ref="A86" r:id="rId40" tooltip="Kingman Reef" display="https://en.wikipedia.org/wiki/Kingman_Reef" xr:uid="{C3AB2C17-113A-4F4C-9D20-C51DE2C9D0F8}"/>
-    <hyperlink ref="K86" r:id="rId41" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{EB34E658-1780-45FF-9C2A-E5ACF3481E05}"/>
-    <hyperlink ref="A87" r:id="rId42" tooltip="Midway Atoll" display="https://en.wikipedia.org/wiki/Midway_Atoll" xr:uid="{AF62F1D6-BEFF-427F-8F5F-2837469042DE}"/>
-    <hyperlink ref="K87" r:id="rId43" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{A0DC5ABA-0002-4390-9AB8-87DC6725077F}"/>
-    <hyperlink ref="A88" r:id="rId44" tooltip="Navassa Island" display="https://en.wikipedia.org/wiki/Navassa_Island" xr:uid="{81E6ED2E-F784-4E88-B81A-CF89C1409B70}"/>
-    <hyperlink ref="K88" r:id="rId45" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{25AB8590-2248-49EB-ABFD-AD95C0752810}"/>
-    <hyperlink ref="B89" r:id="rId46" location="cite_note-Palmyra-14" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Palmyra-14" xr:uid="{AF6BA177-4B30-4EA4-9A95-AA13A9FCE6A2}"/>
-    <hyperlink ref="K89" r:id="rId47" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{FBCC61FC-341C-4C52-B3E1-19932A33313B}"/>
-    <hyperlink ref="A90" r:id="rId48" tooltip="Wake Island" display="https://en.wikipedia.org/wiki/Wake_Island" xr:uid="{B53C3C5E-8B1F-4D16-A6AD-C24EEF6DF6D7}"/>
-    <hyperlink ref="K90" r:id="rId49" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{CBAE6263-04DC-474C-BCB7-5EDC0D804ED2}"/>
-    <hyperlink ref="B91" r:id="rId50" tooltip="Compact of Free Association" display="https://en.wikipedia.org/wiki/Compact_of_Free_Association" xr:uid="{CECA52AE-503E-4249-8A73-F9C99D7E3289}"/>
-    <hyperlink ref="B100" r:id="rId51" location="U.S._Military_Postal_Service_(MPS)" tooltip="Military mail" display="https://en.wikipedia.org/wiki/Military_mail - U.S._Military_Postal_Service_(MPS)" xr:uid="{78F62DE6-EC1B-41B5-8EE5-17EE21422AAD}"/>
-    <hyperlink ref="B103" r:id="rId52" location="cite_note-18" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-18" xr:uid="{2FA35332-7604-4B7D-96C6-00B0E19B5BE2}"/>
-    <hyperlink ref="B104" r:id="rId53" location="cite_note-19" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-19" xr:uid="{ABEF4106-D2A1-4EB9-8D4E-505E4621AB5E}"/>
-    <hyperlink ref="C110" r:id="rId54" location="cite_note-20" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-20" xr:uid="{7F4BCED7-6D98-4AF7-BE10-919AFE46FD27}"/>
+    <hyperlink ref="A1" r:id="rId1" tooltip="List of states and territories of the United States" display="https://en.wikipedia.org/wiki/List_of_states_and_territories_of_the_United_States" xr:uid="{06127A83-9845-4522-A3E8-9E657296B184}"/>
+    <hyperlink ref="C1" r:id="rId2" tooltip="ISO 3166" display="https://en.wikipedia.org/wiki/ISO_3166" xr:uid="{DAD92860-305E-40BA-89EC-C4C99F674BA1}"/>
+    <hyperlink ref="D1" r:id="rId3" location="ANSI_standard_INCITS_38:2009" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - ANSI_standard_INCITS_38:2009" xr:uid="{6EA44102-6773-409B-B52A-B10C8F403D21}"/>
+    <hyperlink ref="F1" r:id="rId4" location="Postal_codes" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - Postal_codes" xr:uid="{01A917FE-D45C-46E2-9BF4-DA9012AF5CA9}"/>
+    <hyperlink ref="G1" r:id="rId5" location="Coast_Guard_vessel_prefixes" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - Coast_Guard_vessel_prefixes" xr:uid="{7E12C60E-DE80-472E-B470-7EA00C4DC2A9}"/>
+    <hyperlink ref="H1" r:id="rId6" location="GPO" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - GPO" xr:uid="{53377C82-70CC-40B9-8C30-3095F40234C4}"/>
+    <hyperlink ref="I1" r:id="rId7" location="Current_use_of_traditional_abbreviations" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - Current_use_of_traditional_abbreviations" xr:uid="{5348005B-BF21-45D1-AADA-10D397DB9D30}"/>
+    <hyperlink ref="J1" r:id="rId8" tooltip="Federal judiciary of the United States" display="https://en.wikipedia.org/wiki/Federal_judiciary_of_the_United_States" xr:uid="{7BF2943E-22FA-4119-81FF-2D0533AAA502}"/>
+    <hyperlink ref="B3" r:id="rId9" tooltip="Federation" display="https://en.wikipedia.org/wiki/Federation" xr:uid="{191C4D6A-0592-496C-8146-F315DCDBA8C0}"/>
+    <hyperlink ref="B6" r:id="rId10" tooltip="U.S. state" display="https://en.wikipedia.org/wiki/U.S._state" xr:uid="{71DF3FB1-9ADE-4ABE-B332-506385D86EB2}"/>
+    <hyperlink ref="K7" r:id="rId11" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{B3C75D1F-E927-4687-B9A3-12A654FD54D3}"/>
+    <hyperlink ref="B14" r:id="rId12" tooltip="Federal district" display="https://en.wikipedia.org/wiki/Federal_district" xr:uid="{C875D8B9-417B-48C8-8E09-264E899A3421}"/>
+    <hyperlink ref="K14" r:id="rId13" location="cite_note-Navy-1863-4" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Navy-1863-4" xr:uid="{8B52D548-6B8B-4AF3-AD7E-30D82941C3FC}"/>
+    <hyperlink ref="K16" r:id="rId14" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{EAFEFADB-6E0C-4792-B08E-FB054F81B49C}"/>
+    <hyperlink ref="K17" r:id="rId15" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{26B81428-629A-42BD-A94A-ABBDEF81FCD7}"/>
+    <hyperlink ref="K18" r:id="rId16" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{A9C08853-D052-4398-8F06-0DEB54A8A756}"/>
+    <hyperlink ref="K21" r:id="rId17" location="cite_note-5" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-5" xr:uid="{B93532A0-1D64-4D89-A59D-F2D52466BAC7}"/>
+    <hyperlink ref="K23" r:id="rId18" location="cite_note-6" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-6" xr:uid="{2056C111-7E57-4C83-BA70-A64E350F86A3}"/>
+    <hyperlink ref="K36" r:id="rId19" location="cite_note-Navy-1863-4" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Navy-1863-4" xr:uid="{CC2E4148-63BD-42E1-80CF-01CD52428894}"/>
+    <hyperlink ref="K38" r:id="rId20" location="cite_note-Navy-1863-4" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Navy-1863-4" xr:uid="{55318F39-D884-4DD2-AE4F-8F9586A9D753}"/>
+    <hyperlink ref="K45" r:id="rId21" tooltip="Providence Plantations" display="https://en.wikipedia.org/wiki/Providence_Plantations" xr:uid="{337C618C-4572-493D-AB17-2B8ABBBF5CBA}"/>
+    <hyperlink ref="K50" r:id="rId22" location="cite_note-FFA-repair-3" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-FFA-repair-3" xr:uid="{149EAC18-C850-42C7-B967-79F8172CF532}"/>
+    <hyperlink ref="K51" r:id="rId23" location="cite_note-Gazatteer-9" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Gazatteer-9" xr:uid="{16D3F0F0-1F05-4BDF-946D-25AC0B897A8B}"/>
+    <hyperlink ref="K53" r:id="rId24" location="cite_note-10" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-10" xr:uid="{D1DB2DA4-86AE-4C40-A7B1-8C64F8360E4F}"/>
+    <hyperlink ref="B65" r:id="rId25" tooltip="Commonwealth (U.S. insular area)" display="https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)" xr:uid="{8217AD92-EED6-491C-8E6C-CE9756A310B7}"/>
+    <hyperlink ref="K65" r:id="rId26" location="cite_note-11" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-11" xr:uid="{4D7DB31A-B905-4EDF-AF71-ADA4BB765C74}"/>
+    <hyperlink ref="B69" r:id="rId27" tooltip="Commonwealth (U.S. insular area)" display="https://en.wikipedia.org/wiki/Commonwealth_(U.S._insular_area)" xr:uid="{C027FAE1-F175-4BB3-B81B-104B09B43CE7}"/>
+    <hyperlink ref="A77" r:id="rId28" tooltip="United States Minor Outlying Islands" display="https://en.wikipedia.org/wiki/United_States_Minor_Outlying_Islands" xr:uid="{780A3828-7906-4257-B9A8-0DFE21F6D4BE}"/>
+    <hyperlink ref="F77" r:id="rId29" location="cite_note-12" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-12" xr:uid="{81D483C3-24DE-4FE7-A7E8-F3BB6C69A992}"/>
+    <hyperlink ref="A81" r:id="rId30" tooltip="Baker Island" display="https://en.wikipedia.org/wiki/Baker_Island" xr:uid="{4EE33984-59AD-4844-BAF7-F37E41100F77}"/>
+    <hyperlink ref="B81" r:id="rId31" tooltip="Island" display="https://en.wikipedia.org/wiki/Island" xr:uid="{4CF41756-39A0-42A0-B711-988DF58BC3CE}"/>
+    <hyperlink ref="K81" r:id="rId32" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{69F9D06B-B21A-40A3-9D69-1F53175C0498}"/>
+    <hyperlink ref="A82" r:id="rId33" tooltip="Howland Island" display="https://en.wikipedia.org/wiki/Howland_Island" xr:uid="{157FBDA9-7D9C-4E38-A2B4-0DA8EA34084A}"/>
+    <hyperlink ref="K82" r:id="rId34" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{39A68178-85D7-4A81-B6A5-61614B1675FF}"/>
+    <hyperlink ref="A83" r:id="rId35" tooltip="Jarvis Island" display="https://en.wikipedia.org/wiki/Jarvis_Island" xr:uid="{5E0A620E-A728-4F1B-BC36-21CEF796614E}"/>
+    <hyperlink ref="K83" r:id="rId36" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{EB2B1268-9AA4-4129-8337-6CCE1EFCD4B3}"/>
+    <hyperlink ref="A84" r:id="rId37" tooltip="Johnston Atoll" display="https://en.wikipedia.org/wiki/Johnston_Atoll" xr:uid="{99B0E518-77A4-41C8-9081-672405D7EA9A}"/>
+    <hyperlink ref="B84" r:id="rId38" tooltip="Atoll" display="https://en.wikipedia.org/wiki/Atoll" xr:uid="{BC90E5CD-01D3-4902-B4C1-C2EA959BC677}"/>
+    <hyperlink ref="K84" r:id="rId39" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{57935416-A775-4EEB-842D-CFD2BFC5C7EC}"/>
+    <hyperlink ref="A85" r:id="rId40" tooltip="Kingman Reef" display="https://en.wikipedia.org/wiki/Kingman_Reef" xr:uid="{C3AB2C17-113A-4F4C-9D20-C51DE2C9D0F8}"/>
+    <hyperlink ref="K85" r:id="rId41" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{EB34E658-1780-45FF-9C2A-E5ACF3481E05}"/>
+    <hyperlink ref="A86" r:id="rId42" tooltip="Midway Atoll" display="https://en.wikipedia.org/wiki/Midway_Atoll" xr:uid="{AF62F1D6-BEFF-427F-8F5F-2837469042DE}"/>
+    <hyperlink ref="K86" r:id="rId43" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{A0DC5ABA-0002-4390-9AB8-87DC6725077F}"/>
+    <hyperlink ref="A87" r:id="rId44" tooltip="Navassa Island" display="https://en.wikipedia.org/wiki/Navassa_Island" xr:uid="{81E6ED2E-F784-4E88-B81A-CF89C1409B70}"/>
+    <hyperlink ref="K87" r:id="rId45" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{25AB8590-2248-49EB-ABFD-AD95C0752810}"/>
+    <hyperlink ref="B88" r:id="rId46" location="cite_note-Palmyra-14" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-Palmyra-14" xr:uid="{AF6BA177-4B30-4EA4-9A95-AA13A9FCE6A2}"/>
+    <hyperlink ref="K88" r:id="rId47" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{FBCC61FC-341C-4C52-B3E1-19932A33313B}"/>
+    <hyperlink ref="A89" r:id="rId48" tooltip="Wake Island" display="https://en.wikipedia.org/wiki/Wake_Island" xr:uid="{B53C3C5E-8B1F-4D16-A6AD-C24EEF6DF6D7}"/>
+    <hyperlink ref="K89" r:id="rId49" location="cite_note-:0-13" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-:0-13" xr:uid="{CBAE6263-04DC-474C-BCB7-5EDC0D804ED2}"/>
+    <hyperlink ref="B90" r:id="rId50" tooltip="Compact of Free Association" display="https://en.wikipedia.org/wiki/Compact_of_Free_Association" xr:uid="{CECA52AE-503E-4249-8A73-F9C99D7E3289}"/>
+    <hyperlink ref="B99" r:id="rId51" location="U.S._Military_Postal_Service_(MPS)" tooltip="Military mail" display="https://en.wikipedia.org/wiki/Military_mail - U.S._Military_Postal_Service_(MPS)" xr:uid="{78F62DE6-EC1B-41B5-8EE5-17EE21422AAD}"/>
+    <hyperlink ref="B102" r:id="rId52" location="cite_note-18" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-18" xr:uid="{2FA35332-7604-4B7D-96C6-00B0E19B5BE2}"/>
+    <hyperlink ref="B103" r:id="rId53" location="cite_note-19" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-19" xr:uid="{ABEF4106-D2A1-4EB9-8D4E-505E4621AB5E}"/>
+    <hyperlink ref="C109" r:id="rId54" location="cite_note-20" display="https://en.wikipedia.org/wiki/List_of_U.S._state_and_territory_abbreviations - cite_note-20" xr:uid="{7F4BCED7-6D98-4AF7-BE10-919AFE46FD27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId55"/>
